--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
-    <t>多语言</t>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>keys</t>
   </si>
   <si>
     <t>英文</t>
@@ -23,6 +26,9 @@
   </si>
   <si>
     <t>日文</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
   <si>
     <t>error_old_version</t>
@@ -49,6 +55,9 @@
     <t>エラー %1$d: レート制限を超過しています</t>
   </si>
   <si>
+    <t>Android</t>
+  </si>
+  <si>
     <t>end_to_end_encryption_tip</t>
   </si>
   <si>
@@ -56,6 +65,9 @@
   </si>
   <si>
     <t>此通话已由端对端加密进行保护。除了参与通话的人，其他人包含 Mixin 在内都无法听取或查看。</t>
+  </si>
+  <si>
+    <t>iOS</t>
   </si>
   <si>
     <t>error_no_connection</t>
@@ -70,6 +82,9 @@
     <t>新しいアカウントを作成</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
     <t>landing_introduction</t>
   </si>
   <si>
@@ -80,6 +95,9 @@
   </si>
   <si>
     <t>"Agree &amp; Continue"をタップして%1$sと%2$sを受諾してください。</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
   <si>
     <t>wallet_transaction_tip</t>
@@ -1339,15 +1357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I358"/>
+  <dimension ref="A1:J358"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="20.6016" style="1" customWidth="1"/>
-    <col min="5" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="1" customWidth="1"/>
+    <col min="1" max="5" width="20.6016" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -1357,674 +1375,746 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="D2" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="D3" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>13</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="C4" t="s" s="6">
-        <v>14</v>
+      <c r="C4" t="s" s="2">
+        <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
+      <c r="D4" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="C5" t="s" s="6">
-        <v>17</v>
+      <c r="C5" t="s" s="2">
+        <v>20</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>18</v>
+      <c r="D5" t="s" s="6">
+        <v>21</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" t="s" s="2">
+        <v>22</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
-      <c r="C6" t="s" s="6">
-        <v>21</v>
+      <c r="C6" t="s" s="2">
+        <v>25</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>22</v>
+      <c r="D6" t="s" s="6">
+        <v>26</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" t="s" s="2">
+        <v>27</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
-      <c r="C7" t="s" s="6">
-        <v>25</v>
+      <c r="C7" t="s" s="2">
+        <v>30</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>26</v>
+      <c r="D7" t="s" s="6">
+        <v>31</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" t="s" s="2">
+        <v>32</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
-      <c r="C8" t="s" s="6">
-        <v>29</v>
+      <c r="C8" t="s" s="2">
+        <v>34</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="D8" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="7"/>
@@ -2036,6 +2126,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="7"/>
@@ -2047,6 +2138,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="7"/>
@@ -2058,6 +2150,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="7"/>
@@ -2069,1733 +2162,1891 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" ht="20.25" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="7"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="7"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="7"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="7"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="7"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="7"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="7"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="7"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="7"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="7"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="4"/>
+      <c r="E94" s="7"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="4"/>
+      <c r="E95" s="7"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="4"/>
+      <c r="E96" s="7"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="4"/>
+      <c r="E97" s="7"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="7"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="7"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="7"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="7"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="7"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" ht="47.25" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="4"/>
+      <c r="E108" s="7"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="7"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="7"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="7"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" ht="24.75" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="4"/>
+      <c r="E114" s="7"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="4"/>
+      <c r="E115" s="7"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="4"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="4"/>
+      <c r="E118" s="7"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="4"/>
+      <c r="E119" s="7"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="7"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="7"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="4"/>
+      <c r="E122" s="7"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="4"/>
+      <c r="E123" s="7"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="4"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="4"/>
+      <c r="E125" s="7"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="4"/>
+      <c r="E126" s="7"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="4"/>
+      <c r="E127" s="7"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="4"/>
+      <c r="E128" s="7"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="4"/>
+      <c r="E129" s="7"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="4"/>
+      <c r="E130" s="7"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="7"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="7"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="4"/>
+      <c r="E134" s="7"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="7"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="4"/>
+      <c r="E136" s="7"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="4"/>
+      <c r="E137" s="7"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="7"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="7"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="4"/>
+      <c r="E140" s="7"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="4"/>
+      <c r="E141" s="7"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="7"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="7"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="7"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="4"/>
+      <c r="E145" s="7"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="4"/>
+      <c r="E146" s="7"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="4"/>
+      <c r="E147" s="7"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="7"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="4"/>
+      <c r="E149" s="7"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="4"/>
+      <c r="E150" s="7"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="4"/>
+      <c r="E151" s="7"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="4"/>
+      <c r="E152" s="7"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
-      <c r="E153" s="4"/>
+      <c r="E153" s="7"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="7"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="7"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="4"/>
+      <c r="E156" s="7"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="4"/>
+      <c r="E157" s="7"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="4"/>
+      <c r="E158" s="7"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
-      <c r="E159" s="4"/>
+      <c r="E159" s="7"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
     </row>
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="7"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
     </row>
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
-      <c r="E161" s="4"/>
+      <c r="E161" s="7"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
     </row>
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
-      <c r="E162" s="4"/>
+      <c r="E162" s="7"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
     </row>
     <row r="163" ht="42.75" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="7"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
     </row>
     <row r="164" ht="42.75" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="4"/>
+      <c r="E164" s="7"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
     </row>
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
-      <c r="E165" s="4"/>
+      <c r="E165" s="7"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
     </row>
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
-      <c r="E166" s="4"/>
+      <c r="E166" s="7"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
     </row>
     <row r="167" ht="58.5" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
-      <c r="E167" s="4"/>
+      <c r="E167" s="7"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
     </row>
     <row r="168" ht="47.25" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="4"/>
+      <c r="E168" s="7"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
     </row>
     <row r="169" ht="47.25" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="4"/>
+      <c r="E169" s="7"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
     </row>
     <row r="170" ht="24.75" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
-      <c r="E170" s="4"/>
+      <c r="E170" s="7"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
     </row>
     <row r="171" ht="24.75" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="4"/>
+      <c r="E171" s="7"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
     </row>
     <row r="172" ht="24.75" customHeight="1">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="7"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
     </row>
     <row r="173" ht="36" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="4"/>
+      <c r="E173" s="7"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
     </row>
     <row r="174" ht="24.75" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
-      <c r="E174" s="4"/>
+      <c r="E174" s="7"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
     </row>
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
-      <c r="E175" s="4"/>
+      <c r="E175" s="7"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
     </row>
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
-      <c r="E176" s="4"/>
+      <c r="E176" s="7"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
     </row>
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
-      <c r="E177" s="4"/>
+      <c r="E177" s="7"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
     </row>
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
-      <c r="E178" s="4"/>
+      <c r="E178" s="7"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
     </row>
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
-      <c r="E179" s="4"/>
+      <c r="E179" s="7"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
     </row>
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
-      <c r="E180" s="4"/>
+      <c r="E180" s="7"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
     </row>
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="4"/>
+      <c r="E181" s="7"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
     </row>
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="4"/>
+      <c r="E182" s="7"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
     </row>
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="4"/>
+      <c r="E183" s="7"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
     </row>
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
-      <c r="E184" s="4"/>
+      <c r="E184" s="7"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
     </row>
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
-      <c r="E185" s="4"/>
+      <c r="E185" s="7"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
     </row>
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
-      <c r="E186" s="4"/>
+      <c r="E186" s="7"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
     </row>
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
-      <c r="E187" s="4"/>
+      <c r="E187" s="7"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
     </row>
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
-      <c r="E188" s="4"/>
+      <c r="E188" s="7"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
     </row>
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="4"/>
+      <c r="E189" s="7"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
     </row>
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
-      <c r="E190" s="4"/>
+      <c r="E190" s="7"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
     </row>
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="4"/>
+      <c r="E191" s="7"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
     </row>
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
-      <c r="E192" s="4"/>
+      <c r="E192" s="7"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
-      <c r="E193" s="4"/>
+      <c r="E193" s="7"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
-      <c r="E194" s="4"/>
+      <c r="E194" s="7"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
-      <c r="E195" s="4"/>
+      <c r="E195" s="7"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
-      <c r="E196" s="4"/>
+      <c r="E196" s="7"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
-      <c r="E197" s="4"/>
+      <c r="E197" s="7"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
-      <c r="E198" s="4"/>
+      <c r="E198" s="7"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
-      <c r="E199" s="4"/>
+      <c r="E199" s="7"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="4"/>
+      <c r="E200" s="7"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
-      <c r="E201" s="4"/>
+      <c r="E201" s="7"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
-      <c r="E202" s="4"/>
+      <c r="E202" s="7"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
-      <c r="E203" s="4"/>
+      <c r="E203" s="7"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
-      <c r="E204" s="4"/>
+      <c r="E204" s="7"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
-      <c r="E205" s="4"/>
+      <c r="E205" s="7"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
-      <c r="E206" s="4"/>
+      <c r="E206" s="7"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
     </row>
     <row r="207" ht="36" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
-      <c r="E207" s="4"/>
+      <c r="E207" s="7"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
     </row>
     <row r="208" ht="16.5" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
-      <c r="E208" s="4"/>
+      <c r="E208" s="7"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
     </row>
     <row r="209" ht="36" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
-      <c r="E209" s="4"/>
+      <c r="E209" s="7"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
     </row>
     <row r="210" ht="16.5" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
-      <c r="E210" s="4"/>
+      <c r="E210" s="7"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
     </row>
     <row r="211" ht="16.5" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
-      <c r="E211" s="4"/>
+      <c r="E211" s="7"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
     </row>
     <row r="212" ht="16.5" customHeight="1">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
-      <c r="E212" s="4"/>
+      <c r="E212" s="7"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
     </row>
     <row r="213" ht="16.5" customHeight="1">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
-      <c r="E213" s="4"/>
+      <c r="E213" s="7"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
     </row>
     <row r="214" ht="16.5" customHeight="1">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
-      <c r="E214" s="4"/>
+      <c r="E214" s="7"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
     </row>
     <row r="215" ht="16.5" customHeight="1">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
-      <c r="E215" s="4"/>
+      <c r="E215" s="7"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
     </row>
     <row r="216" ht="16.5" customHeight="1">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
-      <c r="E216" s="4"/>
+      <c r="E216" s="7"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
     </row>
     <row r="217" ht="16.5" customHeight="1">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
-      <c r="E217" s="4"/>
+      <c r="E217" s="7"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
     </row>
     <row r="218" ht="33.75" customHeight="1">
       <c r="A218" s="7"/>
@@ -3807,6 +4058,7 @@
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
     </row>
     <row r="219" ht="16.5" customHeight="1">
       <c r="A219" s="7"/>
@@ -3818,6 +4070,7 @@
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
     </row>
     <row r="220" ht="23.25" customHeight="1">
       <c r="A220" s="7"/>
@@ -3829,6 +4082,7 @@
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
     </row>
     <row r="221" ht="16.5" customHeight="1">
       <c r="A221" s="7"/>
@@ -3840,6 +4094,7 @@
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
     </row>
     <row r="222" ht="16.5" customHeight="1">
       <c r="A222" s="7"/>
@@ -3851,6 +4106,7 @@
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
     </row>
     <row r="223" ht="23.25" customHeight="1">
       <c r="A223" s="7"/>
@@ -3862,6 +4118,7 @@
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
+      <c r="J223" s="7"/>
     </row>
     <row r="224" ht="16.5" customHeight="1">
       <c r="A224" s="7"/>
@@ -3873,6 +4130,7 @@
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
     </row>
     <row r="225" ht="16.5" customHeight="1">
       <c r="A225" s="7"/>
@@ -3884,28 +4142,31 @@
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
     </row>
     <row r="226" ht="16.5" customHeight="1">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="8"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
+      <c r="J226" s="7"/>
     </row>
     <row r="227" ht="16.5" customHeight="1">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="8"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
     </row>
     <row r="228" ht="44.25" customHeight="1">
       <c r="A228" s="7"/>
@@ -3917,6 +4178,7 @@
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
     </row>
     <row r="229" ht="16.5" customHeight="1">
       <c r="A229" s="7"/>
@@ -3928,6 +4190,7 @@
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
     </row>
     <row r="230" ht="16.5" customHeight="1">
       <c r="A230" s="7"/>
@@ -3939,6 +4202,7 @@
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
+      <c r="J230" s="7"/>
     </row>
     <row r="231" ht="65.25" customHeight="1">
       <c r="A231" s="7"/>
@@ -3950,6 +4214,7 @@
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
+      <c r="J231" s="7"/>
     </row>
     <row r="232" ht="16.5" customHeight="1">
       <c r="A232" s="7"/>
@@ -3961,6 +4226,7 @@
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
     </row>
     <row r="233" ht="16.5" customHeight="1">
       <c r="A233" s="7"/>
@@ -3972,6 +4238,7 @@
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
     </row>
     <row r="234" ht="16.5" customHeight="1">
       <c r="A234" s="7"/>
@@ -3983,6 +4250,7 @@
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
     </row>
     <row r="235" ht="16.5" customHeight="1">
       <c r="A235" s="7"/>
@@ -3994,6 +4262,7 @@
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
     </row>
     <row r="236" ht="33.75" customHeight="1">
       <c r="A236" s="7"/>
@@ -4005,6 +4274,7 @@
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
     </row>
     <row r="237" ht="16.5" customHeight="1">
       <c r="A237" s="7"/>
@@ -4016,6 +4286,7 @@
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
     </row>
     <row r="238" ht="16.5" customHeight="1">
       <c r="A238" s="7"/>
@@ -4027,6 +4298,7 @@
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
     </row>
     <row r="239" ht="16.5" customHeight="1">
       <c r="A239" s="7"/>
@@ -4038,6 +4310,7 @@
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
+      <c r="J239" s="7"/>
     </row>
     <row r="240" ht="16.5" customHeight="1">
       <c r="A240" s="7"/>
@@ -4049,6 +4322,7 @@
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
     </row>
     <row r="241" ht="16.5" customHeight="1">
       <c r="A241" s="7"/>
@@ -4060,6 +4334,7 @@
       <c r="G241" s="7"/>
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
     </row>
     <row r="242" ht="16.5" customHeight="1">
       <c r="A242" s="7"/>
@@ -4071,6 +4346,7 @@
       <c r="G242" s="7"/>
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
     </row>
     <row r="243" ht="16.5" customHeight="1">
       <c r="A243" s="7"/>
@@ -4082,6 +4358,7 @@
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
     </row>
     <row r="244" ht="16.5" customHeight="1">
       <c r="A244" s="7"/>
@@ -4093,6 +4370,7 @@
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
+      <c r="J244" s="7"/>
     </row>
     <row r="245" ht="16.5" customHeight="1">
       <c r="A245" s="7"/>
@@ -4104,6 +4382,7 @@
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
+      <c r="J245" s="7"/>
     </row>
     <row r="246" ht="16.5" customHeight="1">
       <c r="A246" s="7"/>
@@ -4115,6 +4394,7 @@
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
+      <c r="J246" s="7"/>
     </row>
     <row r="247" ht="16.5" customHeight="1">
       <c r="A247" s="7"/>
@@ -4126,6 +4406,7 @@
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
+      <c r="J247" s="7"/>
     </row>
     <row r="248" ht="23.25" customHeight="1">
       <c r="A248" s="7"/>
@@ -4137,6 +4418,7 @@
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
+      <c r="J248" s="7"/>
     </row>
     <row r="249" ht="16.5" customHeight="1">
       <c r="A249" s="7"/>
@@ -4148,6 +4430,7 @@
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
+      <c r="J249" s="7"/>
     </row>
     <row r="250" ht="16.5" customHeight="1">
       <c r="A250" s="7"/>
@@ -4159,6 +4442,7 @@
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
+      <c r="J250" s="7"/>
     </row>
     <row r="251" ht="16.5" customHeight="1">
       <c r="A251" s="7"/>
@@ -4170,6 +4454,7 @@
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
     </row>
     <row r="252" ht="16.5" customHeight="1">
       <c r="A252" s="7"/>
@@ -4181,6 +4466,7 @@
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
+      <c r="J252" s="7"/>
     </row>
     <row r="253" ht="16.5" customHeight="1">
       <c r="A253" s="7"/>
@@ -4192,6 +4478,7 @@
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
     </row>
     <row r="254" ht="16.5" customHeight="1">
       <c r="A254" s="7"/>
@@ -4203,6 +4490,7 @@
       <c r="G254" s="7"/>
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
     </row>
     <row r="255" ht="16.5" customHeight="1">
       <c r="A255" s="7"/>
@@ -4214,6 +4502,7 @@
       <c r="G255" s="7"/>
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
+      <c r="J255" s="7"/>
     </row>
     <row r="256" ht="16.5" customHeight="1">
       <c r="A256" s="7"/>
@@ -4225,6 +4514,7 @@
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
     </row>
     <row r="257" ht="16.5" customHeight="1">
       <c r="A257" s="7"/>
@@ -4236,6 +4526,7 @@
       <c r="G257" s="7"/>
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
     </row>
     <row r="258" ht="16.5" customHeight="1">
       <c r="A258" s="7"/>
@@ -4247,6 +4538,7 @@
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
+      <c r="J258" s="7"/>
     </row>
     <row r="259" ht="16.5" customHeight="1">
       <c r="A259" s="7"/>
@@ -4258,6 +4550,7 @@
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
+      <c r="J259" s="7"/>
     </row>
     <row r="260" ht="16.5" customHeight="1">
       <c r="A260" s="7"/>
@@ -4269,6 +4562,7 @@
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
+      <c r="J260" s="7"/>
     </row>
     <row r="261" ht="16.5" customHeight="1">
       <c r="A261" s="7"/>
@@ -4280,6 +4574,7 @@
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
     </row>
     <row r="262" ht="16.5" customHeight="1">
       <c r="A262" s="7"/>
@@ -4291,6 +4586,7 @@
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
+      <c r="J262" s="7"/>
     </row>
     <row r="263" ht="16.5" customHeight="1">
       <c r="A263" s="7"/>
@@ -4302,6 +4598,7 @@
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
+      <c r="J263" s="7"/>
     </row>
     <row r="264" ht="16.5" customHeight="1">
       <c r="A264" s="7"/>
@@ -4313,6 +4610,7 @@
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
+      <c r="J264" s="7"/>
     </row>
     <row r="265" ht="23.25" customHeight="1">
       <c r="A265" s="7"/>
@@ -4324,6 +4622,7 @@
       <c r="G265" s="7"/>
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
+      <c r="J265" s="7"/>
     </row>
     <row r="266" ht="16.5" customHeight="1">
       <c r="A266" s="7"/>
@@ -4335,6 +4634,7 @@
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
+      <c r="J266" s="7"/>
     </row>
     <row r="267" ht="16.5" customHeight="1">
       <c r="A267" s="7"/>
@@ -4346,6 +4646,7 @@
       <c r="G267" s="7"/>
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
+      <c r="J267" s="7"/>
     </row>
     <row r="268" ht="16.5" customHeight="1">
       <c r="A268" s="7"/>
@@ -4357,6 +4658,7 @@
       <c r="G268" s="7"/>
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
+      <c r="J268" s="7"/>
     </row>
     <row r="269" ht="33.75" customHeight="1">
       <c r="A269" s="7"/>
@@ -4368,6 +4670,7 @@
       <c r="G269" s="7"/>
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
+      <c r="J269" s="7"/>
     </row>
     <row r="270" ht="16.5" customHeight="1">
       <c r="A270" s="7"/>
@@ -4379,6 +4682,7 @@
       <c r="G270" s="7"/>
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
+      <c r="J270" s="7"/>
     </row>
     <row r="271" ht="23.25" customHeight="1">
       <c r="A271" s="7"/>
@@ -4390,6 +4694,7 @@
       <c r="G271" s="7"/>
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
+      <c r="J271" s="7"/>
     </row>
     <row r="272" ht="16.5" customHeight="1">
       <c r="A272" s="7"/>
@@ -4401,6 +4706,7 @@
       <c r="G272" s="7"/>
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
+      <c r="J272" s="7"/>
     </row>
     <row r="273" ht="16.5" customHeight="1">
       <c r="A273" s="7"/>
@@ -4412,6 +4718,7 @@
       <c r="G273" s="7"/>
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
+      <c r="J273" s="7"/>
     </row>
     <row r="274" ht="16.5" customHeight="1">
       <c r="A274" s="7"/>
@@ -4423,6 +4730,7 @@
       <c r="G274" s="7"/>
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
+      <c r="J274" s="7"/>
     </row>
     <row r="275" ht="16.5" customHeight="1">
       <c r="A275" s="7"/>
@@ -4434,6 +4742,7 @@
       <c r="G275" s="7"/>
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
+      <c r="J275" s="7"/>
     </row>
     <row r="276" ht="16.5" customHeight="1">
       <c r="A276" s="7"/>
@@ -4445,6 +4754,7 @@
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
+      <c r="J276" s="7"/>
     </row>
     <row r="277" ht="16.5" customHeight="1">
       <c r="A277" s="7"/>
@@ -4456,6 +4766,7 @@
       <c r="G277" s="7"/>
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
+      <c r="J277" s="7"/>
     </row>
     <row r="278" ht="16.5" customHeight="1">
       <c r="A278" s="7"/>
@@ -4467,6 +4778,7 @@
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
+      <c r="J278" s="7"/>
     </row>
     <row r="279" ht="33.75" customHeight="1">
       <c r="A279" s="7"/>
@@ -4478,6 +4790,7 @@
       <c r="G279" s="7"/>
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
+      <c r="J279" s="7"/>
     </row>
     <row r="280" ht="33.75" customHeight="1">
       <c r="A280" s="7"/>
@@ -4489,6 +4802,7 @@
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
+      <c r="J280" s="7"/>
     </row>
     <row r="281" ht="33.75" customHeight="1">
       <c r="A281" s="7"/>
@@ -4500,6 +4814,7 @@
       <c r="G281" s="7"/>
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
+      <c r="J281" s="7"/>
     </row>
     <row r="282" ht="16.5" customHeight="1">
       <c r="A282" s="7"/>
@@ -4511,6 +4826,7 @@
       <c r="G282" s="7"/>
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
     </row>
     <row r="283" ht="23.25" customHeight="1">
       <c r="A283" s="7"/>
@@ -4522,6 +4838,7 @@
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
     </row>
     <row r="284" ht="23.25" customHeight="1">
       <c r="A284" s="7"/>
@@ -4533,6 +4850,7 @@
       <c r="G284" s="7"/>
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
+      <c r="J284" s="7"/>
     </row>
     <row r="285" ht="23.25" customHeight="1">
       <c r="A285" s="7"/>
@@ -4544,6 +4862,7 @@
       <c r="G285" s="7"/>
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
+      <c r="J285" s="7"/>
     </row>
     <row r="286" ht="23.25" customHeight="1">
       <c r="A286" s="7"/>
@@ -4555,6 +4874,7 @@
       <c r="G286" s="7"/>
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
+      <c r="J286" s="7"/>
     </row>
     <row r="287" ht="23.25" customHeight="1">
       <c r="A287" s="7"/>
@@ -4566,6 +4886,7 @@
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
+      <c r="J287" s="7"/>
     </row>
     <row r="288" ht="23.25" customHeight="1">
       <c r="A288" s="7"/>
@@ -4577,6 +4898,7 @@
       <c r="G288" s="7"/>
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
+      <c r="J288" s="7"/>
     </row>
     <row r="289" ht="16.5" customHeight="1">
       <c r="A289" s="7"/>
@@ -4588,6 +4910,7 @@
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
+      <c r="J289" s="7"/>
     </row>
     <row r="290" ht="16.5" customHeight="1">
       <c r="A290" s="7"/>
@@ -4599,6 +4922,7 @@
       <c r="G290" s="7"/>
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
+      <c r="J290" s="7"/>
     </row>
     <row r="291" ht="16.5" customHeight="1">
       <c r="A291" s="7"/>
@@ -4610,6 +4934,7 @@
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
+      <c r="J291" s="7"/>
     </row>
     <row r="292" ht="16.5" customHeight="1">
       <c r="A292" s="7"/>
@@ -4621,6 +4946,7 @@
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
     </row>
     <row r="293" ht="16.5" customHeight="1">
       <c r="A293" s="7"/>
@@ -4632,6 +4958,7 @@
       <c r="G293" s="7"/>
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
+      <c r="J293" s="7"/>
     </row>
     <row r="294" ht="16.5" customHeight="1">
       <c r="A294" s="7"/>
@@ -4643,6 +4970,7 @@
       <c r="G294" s="7"/>
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
+      <c r="J294" s="7"/>
     </row>
     <row r="295" ht="16.5" customHeight="1">
       <c r="A295" s="7"/>
@@ -4654,6 +4982,7 @@
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
     </row>
     <row r="296" ht="16.5" customHeight="1">
       <c r="A296" s="7"/>
@@ -4665,6 +4994,7 @@
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
+      <c r="J296" s="7"/>
     </row>
     <row r="297" ht="16.5" customHeight="1">
       <c r="A297" s="7"/>
@@ -4676,6 +5006,7 @@
       <c r="G297" s="7"/>
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
+      <c r="J297" s="7"/>
     </row>
     <row r="298" ht="16.5" customHeight="1">
       <c r="A298" s="7"/>
@@ -4687,6 +5018,7 @@
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
+      <c r="J298" s="7"/>
     </row>
     <row r="299" ht="16.5" customHeight="1">
       <c r="A299" s="7"/>
@@ -4698,6 +5030,7 @@
       <c r="G299" s="7"/>
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
+      <c r="J299" s="7"/>
     </row>
     <row r="300" ht="16.5" customHeight="1">
       <c r="A300" s="7"/>
@@ -4709,6 +5042,7 @@
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
+      <c r="J300" s="7"/>
     </row>
     <row r="301" ht="16.5" customHeight="1">
       <c r="A301" s="7"/>
@@ -4720,6 +5054,7 @@
       <c r="G301" s="7"/>
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
+      <c r="J301" s="7"/>
     </row>
     <row r="302" ht="16.5" customHeight="1">
       <c r="A302" s="7"/>
@@ -4731,6 +5066,7 @@
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
+      <c r="J302" s="7"/>
     </row>
     <row r="303" ht="16.5" customHeight="1">
       <c r="A303" s="7"/>
@@ -4742,6 +5078,7 @@
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
+      <c r="J303" s="7"/>
     </row>
     <row r="304" ht="16.5" customHeight="1">
       <c r="A304" s="7"/>
@@ -4753,6 +5090,7 @@
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
+      <c r="J304" s="7"/>
     </row>
     <row r="305" ht="16.5" customHeight="1">
       <c r="A305" s="7"/>
@@ -4764,6 +5102,7 @@
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
+      <c r="J305" s="7"/>
     </row>
     <row r="306" ht="16.5" customHeight="1">
       <c r="A306" s="7"/>
@@ -4775,6 +5114,7 @@
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
+      <c r="J306" s="7"/>
     </row>
     <row r="307" ht="16.5" customHeight="1">
       <c r="A307" s="7"/>
@@ -4786,6 +5126,7 @@
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
+      <c r="J307" s="7"/>
     </row>
     <row r="308" ht="16.5" customHeight="1">
       <c r="A308" s="7"/>
@@ -4797,6 +5138,7 @@
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
+      <c r="J308" s="7"/>
     </row>
     <row r="309" ht="16.5" customHeight="1">
       <c r="A309" s="7"/>
@@ -4808,6 +5150,7 @@
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
+      <c r="J309" s="7"/>
     </row>
     <row r="310" ht="16.5" customHeight="1">
       <c r="A310" s="7"/>
@@ -4819,6 +5162,7 @@
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
+      <c r="J310" s="7"/>
     </row>
     <row r="311" ht="16.5" customHeight="1">
       <c r="A311" s="7"/>
@@ -4830,6 +5174,7 @@
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
+      <c r="J311" s="7"/>
     </row>
     <row r="312" ht="16.5" customHeight="1">
       <c r="A312" s="7"/>
@@ -4841,6 +5186,7 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
+      <c r="J312" s="7"/>
     </row>
     <row r="313" ht="16.5" customHeight="1">
       <c r="A313" s="7"/>
@@ -4852,6 +5198,7 @@
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
+      <c r="J313" s="7"/>
     </row>
     <row r="314" ht="16.5" customHeight="1">
       <c r="A314" s="7"/>
@@ -4863,6 +5210,7 @@
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
+      <c r="J314" s="7"/>
     </row>
     <row r="315" ht="16.5" customHeight="1">
       <c r="A315" s="7"/>
@@ -4874,6 +5222,7 @@
       <c r="G315" s="7"/>
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
+      <c r="J315" s="7"/>
     </row>
     <row r="316" ht="16.5" customHeight="1">
       <c r="A316" s="7"/>
@@ -4885,6 +5234,7 @@
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
+      <c r="J316" s="7"/>
     </row>
     <row r="317" ht="16.5" customHeight="1">
       <c r="A317" s="7"/>
@@ -4896,6 +5246,7 @@
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
+      <c r="J317" s="7"/>
     </row>
     <row r="318" ht="16.5" customHeight="1">
       <c r="A318" s="7"/>
@@ -4907,6 +5258,7 @@
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
+      <c r="J318" s="7"/>
     </row>
     <row r="319" ht="16.5" customHeight="1">
       <c r="A319" s="7"/>
@@ -4918,6 +5270,7 @@
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
+      <c r="J319" s="7"/>
     </row>
     <row r="320" ht="16.5" customHeight="1">
       <c r="A320" s="7"/>
@@ -4929,6 +5282,7 @@
       <c r="G320" s="7"/>
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
+      <c r="J320" s="7"/>
     </row>
     <row r="321" ht="16.5" customHeight="1">
       <c r="A321" s="7"/>
@@ -4940,6 +5294,7 @@
       <c r="G321" s="7"/>
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
+      <c r="J321" s="7"/>
     </row>
     <row r="322" ht="16.5" customHeight="1">
       <c r="A322" s="7"/>
@@ -4951,6 +5306,7 @@
       <c r="G322" s="7"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
+      <c r="J322" s="7"/>
     </row>
     <row r="323" ht="16.5" customHeight="1">
       <c r="A323" s="7"/>
@@ -4962,6 +5318,7 @@
       <c r="G323" s="7"/>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
+      <c r="J323" s="7"/>
     </row>
     <row r="324" ht="16.5" customHeight="1">
       <c r="A324" s="7"/>
@@ -4973,6 +5330,7 @@
       <c r="G324" s="7"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
+      <c r="J324" s="7"/>
     </row>
     <row r="325" ht="16.5" customHeight="1">
       <c r="A325" s="7"/>
@@ -4984,6 +5342,7 @@
       <c r="G325" s="7"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
+      <c r="J325" s="7"/>
     </row>
     <row r="326" ht="16.5" customHeight="1">
       <c r="A326" s="7"/>
@@ -4995,6 +5354,7 @@
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
+      <c r="J326" s="7"/>
     </row>
     <row r="327" ht="16.5" customHeight="1">
       <c r="A327" s="7"/>
@@ -5006,6 +5366,7 @@
       <c r="G327" s="7"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
+      <c r="J327" s="7"/>
     </row>
     <row r="328" ht="16.5" customHeight="1">
       <c r="A328" s="7"/>
@@ -5017,6 +5378,7 @@
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
+      <c r="J328" s="7"/>
     </row>
     <row r="329" ht="16.5" customHeight="1">
       <c r="A329" s="7"/>
@@ -5028,6 +5390,7 @@
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
+      <c r="J329" s="7"/>
     </row>
     <row r="330" ht="16.5" customHeight="1">
       <c r="A330" s="7"/>
@@ -5039,6 +5402,7 @@
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
+      <c r="J330" s="7"/>
     </row>
     <row r="331" ht="16.5" customHeight="1">
       <c r="A331" s="7"/>
@@ -5050,6 +5414,7 @@
       <c r="G331" s="7"/>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
+      <c r="J331" s="7"/>
     </row>
     <row r="332" ht="16.5" customHeight="1">
       <c r="A332" s="7"/>
@@ -5061,6 +5426,7 @@
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
+      <c r="J332" s="7"/>
     </row>
     <row r="333" ht="16.5" customHeight="1">
       <c r="A333" s="7"/>
@@ -5072,6 +5438,7 @@
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
+      <c r="J333" s="7"/>
     </row>
     <row r="334" ht="16.5" customHeight="1">
       <c r="A334" s="7"/>
@@ -5083,6 +5450,7 @@
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
+      <c r="J334" s="7"/>
     </row>
     <row r="335" ht="16.5" customHeight="1">
       <c r="A335" s="7"/>
@@ -5094,17 +5462,19 @@
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
+      <c r="J335" s="7"/>
     </row>
     <row r="336" ht="16.5" customHeight="1">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
-      <c r="E336" s="8"/>
-      <c r="F336" s="7"/>
+      <c r="E336" s="7"/>
+      <c r="F336" s="8"/>
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
+      <c r="J336" s="7"/>
     </row>
     <row r="337" ht="16.5" customHeight="1">
       <c r="A337" s="7"/>
@@ -5116,6 +5486,7 @@
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
+      <c r="J337" s="7"/>
     </row>
     <row r="338" ht="16.5" customHeight="1">
       <c r="A338" s="7"/>
@@ -5127,6 +5498,7 @@
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
+      <c r="J338" s="7"/>
     </row>
     <row r="339" ht="33.75" customHeight="1">
       <c r="A339" s="7"/>
@@ -5138,17 +5510,19 @@
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
+      <c r="J339" s="7"/>
     </row>
     <row r="340" ht="16.5" customHeight="1">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
-      <c r="E340" s="8"/>
-      <c r="F340" s="7"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="8"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
+      <c r="J340" s="7"/>
     </row>
     <row r="341" ht="33.75" customHeight="1">
       <c r="A341" s="7"/>
@@ -5156,10 +5530,11 @@
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
-      <c r="F341" s="8"/>
-      <c r="G341" s="7"/>
+      <c r="F341" s="7"/>
+      <c r="G341" s="8"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
+      <c r="J341" s="7"/>
     </row>
     <row r="342" ht="33.75" customHeight="1">
       <c r="A342" s="7"/>
@@ -5171,6 +5546,7 @@
       <c r="G342" s="7"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
+      <c r="J342" s="7"/>
     </row>
     <row r="343" ht="16.5" customHeight="1">
       <c r="A343" s="7"/>
@@ -5182,6 +5558,7 @@
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
+      <c r="J343" s="7"/>
     </row>
     <row r="344" ht="44.25" customHeight="1">
       <c r="A344" s="7"/>
@@ -5193,6 +5570,7 @@
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
+      <c r="J344" s="7"/>
     </row>
     <row r="345" ht="23.25" customHeight="1">
       <c r="A345" s="7"/>
@@ -5204,6 +5582,7 @@
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
+      <c r="J345" s="7"/>
     </row>
     <row r="346" ht="16.5" customHeight="1">
       <c r="A346" s="7"/>
@@ -5215,6 +5594,7 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
+      <c r="J346" s="7"/>
     </row>
     <row r="347" ht="16.5" customHeight="1">
       <c r="A347" s="7"/>
@@ -5226,6 +5606,7 @@
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
+      <c r="J347" s="7"/>
     </row>
     <row r="348" ht="16.5" customHeight="1">
       <c r="A348" s="7"/>
@@ -5237,6 +5618,7 @@
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
+      <c r="J348" s="7"/>
     </row>
     <row r="349" ht="16.5" customHeight="1">
       <c r="A349" s="7"/>
@@ -5248,6 +5630,7 @@
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
+      <c r="J349" s="7"/>
     </row>
     <row r="350" ht="16.5" customHeight="1">
       <c r="A350" s="7"/>
@@ -5259,6 +5642,7 @@
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
+      <c r="J350" s="7"/>
     </row>
     <row r="351" ht="16.5" customHeight="1">
       <c r="A351" s="7"/>
@@ -5270,6 +5654,7 @@
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
+      <c r="J351" s="7"/>
     </row>
     <row r="352" ht="16.5" customHeight="1">
       <c r="A352" s="7"/>
@@ -5281,6 +5666,7 @@
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
+      <c r="J352" s="7"/>
     </row>
     <row r="353" ht="16.5" customHeight="1">
       <c r="A353" s="7"/>
@@ -5292,6 +5678,7 @@
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
+      <c r="J353" s="7"/>
     </row>
     <row r="354" ht="16.5" customHeight="1">
       <c r="A354" s="7"/>
@@ -5303,6 +5690,7 @@
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
+      <c r="J354" s="7"/>
     </row>
     <row r="355" ht="23.25" customHeight="1">
       <c r="A355" s="7"/>
@@ -5314,6 +5702,7 @@
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
+      <c r="J355" s="7"/>
     </row>
     <row r="356" ht="23.25" customHeight="1">
       <c r="A356" s="7"/>
@@ -5325,6 +5714,7 @@
       <c r="G356" s="7"/>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
+      <c r="J356" s="7"/>
     </row>
     <row r="357" ht="16.5" customHeight="1">
       <c r="A357" s="7"/>
@@ -5336,6 +5726,7 @@
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
+      <c r="J357" s="7"/>
     </row>
     <row r="358" ht="16.5" customHeight="1">
       <c r="A358" s="7"/>
@@ -5347,6 +5738,7 @@
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
+      <c r="J358" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>platform</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>无法访问 %1$s，请检查你的网络并尝试切换 4G、Wi-Fi 或 VPN 后重新载入页面。</t>
+  </si>
+  <si>
+    <t>continue_count</t>
+  </si>
+  <si>
+    <t>Continue(%1$s)</t>
+  </si>
+  <si>
+    <t>继续（%1$s）</t>
+  </si>
+  <si>
+    <t>number_of_day_count</t>
+  </si>
+  <si>
+    <t>%1$d days remaining</t>
+  </si>
+  <si>
+    <t>剩余%1$d天</t>
+  </si>
+  <si>
+    <t>number_of_day</t>
+  </si>
+  <si>
+    <t>one day remaining</t>
+  </si>
+  <si>
+    <t>剩余1天</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J358"/>
+  <dimension ref="A1:J359"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1541,10 +1568,18 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="A9" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>38</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1553,10 +1588,18 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="A10" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>41</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1565,10 +1608,18 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
+      <c r="A11" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>44</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1673,11 +1724,11 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2122,11 +2173,11 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="7"/>
@@ -2170,11 +2221,11 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="7"/>
@@ -2308,7 +2359,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" ht="20.25" customHeight="1">
+    <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2320,7 +2371,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" ht="16.5" customHeight="1">
+    <row r="74" ht="20.25" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2728,7 +2779,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" ht="47.25" customHeight="1">
+    <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2740,7 +2791,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" ht="16.5" customHeight="1">
+    <row r="109" ht="47.25" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -2800,7 +2851,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" ht="24.75" customHeight="1">
+    <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2812,7 +2863,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" ht="16.5" customHeight="1">
+    <row r="115" ht="24.75" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3388,7 +3439,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" ht="42.75" customHeight="1">
+    <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -3412,7 +3463,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" ht="16.5" customHeight="1">
+    <row r="165" ht="42.75" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -3436,7 +3487,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" ht="58.5" customHeight="1">
+    <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -3448,7 +3499,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" ht="47.25" customHeight="1">
+    <row r="168" ht="58.5" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -3472,7 +3523,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" ht="24.75" customHeight="1">
+    <row r="170" ht="47.25" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -3508,7 +3559,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" ht="36" customHeight="1">
+    <row r="173" ht="24.75" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -3520,7 +3571,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" ht="24.75" customHeight="1">
+    <row r="174" ht="36" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -3532,7 +3583,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" ht="16.5" customHeight="1">
+    <row r="175" ht="24.75" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -3916,7 +3967,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" ht="36" customHeight="1">
+    <row r="207" ht="16.5" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -3928,7 +3979,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" ht="16.5" customHeight="1">
+    <row r="208" ht="36" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -3940,7 +3991,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" ht="36" customHeight="1">
+    <row r="209" ht="16.5" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -3952,7 +4003,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" ht="16.5" customHeight="1">
+    <row r="210" ht="36" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -4048,19 +4099,19 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" ht="33.75" customHeight="1">
+    <row r="218" ht="16.5" customHeight="1">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-    </row>
-    <row r="219" ht="16.5" customHeight="1">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+    </row>
+    <row r="219" ht="33.75" customHeight="1">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -4072,7 +4123,7 @@
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
     </row>
-    <row r="220" ht="23.25" customHeight="1">
+    <row r="220" ht="16.5" customHeight="1">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -4084,7 +4135,7 @@
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
     </row>
-    <row r="221" ht="16.5" customHeight="1">
+    <row r="221" ht="23.25" customHeight="1">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -4108,7 +4159,7 @@
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
     </row>
-    <row r="223" ht="23.25" customHeight="1">
+    <row r="223" ht="16.5" customHeight="1">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -4120,7 +4171,7 @@
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" ht="16.5" customHeight="1">
+    <row r="224" ht="23.25" customHeight="1">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -4150,7 +4201,7 @@
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
-      <c r="F226" s="8"/>
+      <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
@@ -4168,19 +4219,19 @@
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
     </row>
-    <row r="228" ht="44.25" customHeight="1">
+    <row r="228" ht="16.5" customHeight="1">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
+      <c r="F228" s="8"/>
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
     </row>
-    <row r="229" ht="16.5" customHeight="1">
+    <row r="229" ht="44.25" customHeight="1">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -4204,7 +4255,7 @@
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
     </row>
-    <row r="231" ht="65.25" customHeight="1">
+    <row r="231" ht="16.5" customHeight="1">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -4216,7 +4267,7 @@
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
     </row>
-    <row r="232" ht="16.5" customHeight="1">
+    <row r="232" ht="65.25" customHeight="1">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -4264,7 +4315,7 @@
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
     </row>
-    <row r="236" ht="33.75" customHeight="1">
+    <row r="236" ht="16.5" customHeight="1">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -4276,7 +4327,7 @@
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
     </row>
-    <row r="237" ht="16.5" customHeight="1">
+    <row r="237" ht="33.75" customHeight="1">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -4408,7 +4459,7 @@
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
     </row>
-    <row r="248" ht="23.25" customHeight="1">
+    <row r="248" ht="16.5" customHeight="1">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -4420,7 +4471,7 @@
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
     </row>
-    <row r="249" ht="16.5" customHeight="1">
+    <row r="249" ht="23.25" customHeight="1">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -4612,7 +4663,7 @@
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
     </row>
-    <row r="265" ht="23.25" customHeight="1">
+    <row r="265" ht="16.5" customHeight="1">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -4624,7 +4675,7 @@
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
     </row>
-    <row r="266" ht="16.5" customHeight="1">
+    <row r="266" ht="23.25" customHeight="1">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -4660,7 +4711,7 @@
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
     </row>
-    <row r="269" ht="33.75" customHeight="1">
+    <row r="269" ht="16.5" customHeight="1">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -4672,7 +4723,7 @@
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
     </row>
-    <row r="270" ht="16.5" customHeight="1">
+    <row r="270" ht="33.75" customHeight="1">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -4684,7 +4735,7 @@
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
     </row>
-    <row r="271" ht="23.25" customHeight="1">
+    <row r="271" ht="16.5" customHeight="1">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -4696,7 +4747,7 @@
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
     </row>
-    <row r="272" ht="16.5" customHeight="1">
+    <row r="272" ht="23.25" customHeight="1">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -4780,7 +4831,7 @@
       <c r="I278" s="7"/>
       <c r="J278" s="7"/>
     </row>
-    <row r="279" ht="33.75" customHeight="1">
+    <row r="279" ht="16.5" customHeight="1">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -4816,7 +4867,7 @@
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
     </row>
-    <row r="282" ht="16.5" customHeight="1">
+    <row r="282" ht="33.75" customHeight="1">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -4828,7 +4879,7 @@
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
     </row>
-    <row r="283" ht="23.25" customHeight="1">
+    <row r="283" ht="16.5" customHeight="1">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -4900,7 +4951,7 @@
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
     </row>
-    <row r="289" ht="16.5" customHeight="1">
+    <row r="289" ht="23.25" customHeight="1">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -5470,7 +5521,7 @@
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
-      <c r="F336" s="8"/>
+      <c r="F336" s="7"/>
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
@@ -5482,7 +5533,7 @@
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
-      <c r="F337" s="7"/>
+      <c r="F337" s="8"/>
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
@@ -5500,7 +5551,7 @@
       <c r="I338" s="7"/>
       <c r="J338" s="7"/>
     </row>
-    <row r="339" ht="33.75" customHeight="1">
+    <row r="339" ht="16.5" customHeight="1">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -5512,26 +5563,26 @@
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
     </row>
-    <row r="340" ht="16.5" customHeight="1">
+    <row r="340" ht="33.75" customHeight="1">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
-      <c r="F340" s="8"/>
+      <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
       <c r="J340" s="7"/>
     </row>
-    <row r="341" ht="33.75" customHeight="1">
+    <row r="341" ht="16.5" customHeight="1">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
-      <c r="F341" s="7"/>
-      <c r="G341" s="8"/>
+      <c r="F341" s="8"/>
+      <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
       <c r="J341" s="7"/>
@@ -5543,12 +5594,12 @@
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
-      <c r="G342" s="7"/>
+      <c r="G342" s="8"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7"/>
     </row>
-    <row r="343" ht="16.5" customHeight="1">
+    <row r="343" ht="33.75" customHeight="1">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -5560,7 +5611,7 @@
       <c r="I343" s="7"/>
       <c r="J343" s="7"/>
     </row>
-    <row r="344" ht="44.25" customHeight="1">
+    <row r="344" ht="16.5" customHeight="1">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -5572,7 +5623,7 @@
       <c r="I344" s="7"/>
       <c r="J344" s="7"/>
     </row>
-    <row r="345" ht="23.25" customHeight="1">
+    <row r="345" ht="44.25" customHeight="1">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -5584,7 +5635,7 @@
       <c r="I345" s="7"/>
       <c r="J345" s="7"/>
     </row>
-    <row r="346" ht="16.5" customHeight="1">
+    <row r="346" ht="23.25" customHeight="1">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -5692,7 +5743,7 @@
       <c r="I354" s="7"/>
       <c r="J354" s="7"/>
     </row>
-    <row r="355" ht="23.25" customHeight="1">
+    <row r="355" ht="16.5" customHeight="1">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -5716,7 +5767,7 @@
       <c r="I356" s="7"/>
       <c r="J356" s="7"/>
     </row>
-    <row r="357" ht="16.5" customHeight="1">
+    <row r="357" ht="23.25" customHeight="1">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -5740,6 +5791,18 @@
       <c r="I358" s="7"/>
       <c r="J358" s="7"/>
     </row>
+    <row r="359" ht="16.5" customHeight="1">
+      <c r="A359" s="7"/>
+      <c r="B359" s="7"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" s="7"/>
+      <c r="H359" s="7"/>
+      <c r="I359" s="7"/>
+      <c r="J359" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -130,7 +130,10 @@
     <t>继续（%1$s）</t>
   </si>
   <si>
-    <t>number_of_day_count</t>
+    <t>continue.count</t>
+  </si>
+  <si>
+    <t>number_of_day.count</t>
   </si>
   <si>
     <t>%1$d days remaining</t>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>one day remaining</t>
-  </si>
-  <si>
-    <t>剩余1天</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J360"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1595,10 +1595,10 @@
         <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
@@ -1612,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
@@ -1628,9 +1628,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
@@ -1736,11 +1742,11 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2185,11 +2191,11 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="7"/>
@@ -2233,11 +2239,11 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="7"/>
@@ -2371,7 +2377,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" ht="20.25" customHeight="1">
+    <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2383,7 +2389,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" ht="16.5" customHeight="1">
+    <row r="75" ht="20.25" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2791,7 +2797,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" ht="47.25" customHeight="1">
+    <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -2803,7 +2809,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" ht="16.5" customHeight="1">
+    <row r="110" ht="47.25" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -2863,7 +2869,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" ht="24.75" customHeight="1">
+    <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -2875,7 +2881,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" ht="16.5" customHeight="1">
+    <row r="116" ht="24.75" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3451,7 +3457,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" ht="42.75" customHeight="1">
+    <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -3475,7 +3481,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" ht="16.5" customHeight="1">
+    <row r="166" ht="42.75" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -3499,7 +3505,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" ht="58.5" customHeight="1">
+    <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -3511,7 +3517,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" ht="47.25" customHeight="1">
+    <row r="169" ht="58.5" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -3535,7 +3541,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" ht="24.75" customHeight="1">
+    <row r="171" ht="47.25" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -3571,7 +3577,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" ht="36" customHeight="1">
+    <row r="174" ht="24.75" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -3583,7 +3589,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" ht="24.75" customHeight="1">
+    <row r="175" ht="36" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -3595,7 +3601,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" ht="16.5" customHeight="1">
+    <row r="176" ht="24.75" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -3979,7 +3985,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" ht="36" customHeight="1">
+    <row r="208" ht="16.5" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -3991,7 +3997,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" ht="16.5" customHeight="1">
+    <row r="209" ht="36" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -4003,7 +4009,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" ht="36" customHeight="1">
+    <row r="210" ht="16.5" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -4015,7 +4021,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" ht="16.5" customHeight="1">
+    <row r="211" ht="36" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -4111,19 +4117,19 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" ht="33.75" customHeight="1">
+    <row r="219" ht="16.5" customHeight="1">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-    </row>
-    <row r="220" ht="16.5" customHeight="1">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+    </row>
+    <row r="220" ht="33.75" customHeight="1">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -4135,7 +4141,7 @@
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
     </row>
-    <row r="221" ht="23.25" customHeight="1">
+    <row r="221" ht="16.5" customHeight="1">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -4147,7 +4153,7 @@
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
     </row>
-    <row r="222" ht="16.5" customHeight="1">
+    <row r="222" ht="23.25" customHeight="1">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -4171,7 +4177,7 @@
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" ht="23.25" customHeight="1">
+    <row r="224" ht="16.5" customHeight="1">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -4183,7 +4189,7 @@
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
     </row>
-    <row r="225" ht="16.5" customHeight="1">
+    <row r="225" ht="23.25" customHeight="1">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -4213,7 +4219,7 @@
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
-      <c r="F227" s="8"/>
+      <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
@@ -4231,19 +4237,19 @@
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
     </row>
-    <row r="229" ht="44.25" customHeight="1">
+    <row r="229" ht="16.5" customHeight="1">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
+      <c r="F229" s="8"/>
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
     </row>
-    <row r="230" ht="16.5" customHeight="1">
+    <row r="230" ht="44.25" customHeight="1">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -4267,7 +4273,7 @@
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
     </row>
-    <row r="232" ht="65.25" customHeight="1">
+    <row r="232" ht="16.5" customHeight="1">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -4279,7 +4285,7 @@
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
     </row>
-    <row r="233" ht="16.5" customHeight="1">
+    <row r="233" ht="65.25" customHeight="1">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -4327,7 +4333,7 @@
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
     </row>
-    <row r="237" ht="33.75" customHeight="1">
+    <row r="237" ht="16.5" customHeight="1">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -4339,7 +4345,7 @@
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
     </row>
-    <row r="238" ht="16.5" customHeight="1">
+    <row r="238" ht="33.75" customHeight="1">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -4471,7 +4477,7 @@
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
     </row>
-    <row r="249" ht="23.25" customHeight="1">
+    <row r="249" ht="16.5" customHeight="1">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -4483,7 +4489,7 @@
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
     </row>
-    <row r="250" ht="16.5" customHeight="1">
+    <row r="250" ht="23.25" customHeight="1">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -4675,7 +4681,7 @@
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
     </row>
-    <row r="266" ht="23.25" customHeight="1">
+    <row r="266" ht="16.5" customHeight="1">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -4687,7 +4693,7 @@
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
     </row>
-    <row r="267" ht="16.5" customHeight="1">
+    <row r="267" ht="23.25" customHeight="1">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -4723,7 +4729,7 @@
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
     </row>
-    <row r="270" ht="33.75" customHeight="1">
+    <row r="270" ht="16.5" customHeight="1">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -4735,7 +4741,7 @@
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
     </row>
-    <row r="271" ht="16.5" customHeight="1">
+    <row r="271" ht="33.75" customHeight="1">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -4747,7 +4753,7 @@
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
     </row>
-    <row r="272" ht="23.25" customHeight="1">
+    <row r="272" ht="16.5" customHeight="1">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -4759,7 +4765,7 @@
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
     </row>
-    <row r="273" ht="16.5" customHeight="1">
+    <row r="273" ht="23.25" customHeight="1">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -4843,7 +4849,7 @@
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
     </row>
-    <row r="280" ht="33.75" customHeight="1">
+    <row r="280" ht="16.5" customHeight="1">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -4879,7 +4885,7 @@
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
     </row>
-    <row r="283" ht="16.5" customHeight="1">
+    <row r="283" ht="33.75" customHeight="1">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -4891,7 +4897,7 @@
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
     </row>
-    <row r="284" ht="23.25" customHeight="1">
+    <row r="284" ht="16.5" customHeight="1">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -4963,7 +4969,7 @@
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
     </row>
-    <row r="290" ht="16.5" customHeight="1">
+    <row r="290" ht="23.25" customHeight="1">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -5533,7 +5539,7 @@
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
-      <c r="F337" s="8"/>
+      <c r="F337" s="7"/>
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
@@ -5545,7 +5551,7 @@
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
-      <c r="F338" s="7"/>
+      <c r="F338" s="8"/>
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
@@ -5563,7 +5569,7 @@
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
     </row>
-    <row r="340" ht="33.75" customHeight="1">
+    <row r="340" ht="16.5" customHeight="1">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -5575,26 +5581,26 @@
       <c r="I340" s="7"/>
       <c r="J340" s="7"/>
     </row>
-    <row r="341" ht="16.5" customHeight="1">
+    <row r="341" ht="33.75" customHeight="1">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
-      <c r="F341" s="8"/>
+      <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
       <c r="J341" s="7"/>
     </row>
-    <row r="342" ht="33.75" customHeight="1">
+    <row r="342" ht="16.5" customHeight="1">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
-      <c r="F342" s="7"/>
-      <c r="G342" s="8"/>
+      <c r="F342" s="8"/>
+      <c r="G342" s="7"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7"/>
@@ -5606,12 +5612,12 @@
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="7"/>
+      <c r="G343" s="8"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
       <c r="J343" s="7"/>
     </row>
-    <row r="344" ht="16.5" customHeight="1">
+    <row r="344" ht="33.75" customHeight="1">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -5623,7 +5629,7 @@
       <c r="I344" s="7"/>
       <c r="J344" s="7"/>
     </row>
-    <row r="345" ht="44.25" customHeight="1">
+    <row r="345" ht="16.5" customHeight="1">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -5635,7 +5641,7 @@
       <c r="I345" s="7"/>
       <c r="J345" s="7"/>
     </row>
-    <row r="346" ht="23.25" customHeight="1">
+    <row r="346" ht="44.25" customHeight="1">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -5647,7 +5653,7 @@
       <c r="I346" s="7"/>
       <c r="J346" s="7"/>
     </row>
-    <row r="347" ht="16.5" customHeight="1">
+    <row r="347" ht="23.25" customHeight="1">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -5755,7 +5761,7 @@
       <c r="I355" s="7"/>
       <c r="J355" s="7"/>
     </row>
-    <row r="356" ht="23.25" customHeight="1">
+    <row r="356" ht="16.5" customHeight="1">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -5779,7 +5785,7 @@
       <c r="I357" s="7"/>
       <c r="J357" s="7"/>
     </row>
-    <row r="358" ht="16.5" customHeight="1">
+    <row r="358" ht="23.25" customHeight="1">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -5803,6 +5809,18 @@
       <c r="I359" s="7"/>
       <c r="J359" s="7"/>
     </row>
+    <row r="360" ht="16.5" customHeight="1">
+      <c r="A360" s="7"/>
+      <c r="B360" s="7"/>
+      <c r="C360" s="7"/>
+      <c r="D360" s="7"/>
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
+      <c r="G360" s="7"/>
+      <c r="H360" s="7"/>
+      <c r="I360" s="7"/>
+      <c r="J360" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>platform</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t>one day remaining</t>
+  </si>
+  <si>
+    <t>participant_count</t>
+  </si>
+  <si>
+    <t>%1$d participant</t>
+  </si>
+  <si>
+    <t>%1$d 名成员</t>
+  </si>
+  <si>
+    <t>participant_count.count</t>
+  </si>
+  <si>
+    <t>%1$d participants</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1661,18 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
+      <c r="A13" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>47</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1658,10 +1681,18 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
+      <c r="A14" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>47</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>platform</t>
   </si>
@@ -97,19 +97,13 @@
     <t>"Agree &amp; Continue"をタップして%1$sと%2$sを受諾してください。</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
     <t>wallet_transaction_tip</t>
   </si>
   <si>
-    <t>Are you sure you want to transfer %3$s worth %2$s to %1$s ？</t>
+    <t>You have already transferred %3$d to %2$s %1$s. Do you want to transfer it again?</t>
   </si>
   <si>
-    <t>记住密码</t>
-  </si>
-  <si>
-    <t>%1$sへ%2$s相当の%3$sを送金してもよろしいですか？</t>
+    <t>你已经在 %1$s 给 %2$s 转账了 %3$d，确认还要再转一次吗？</t>
   </si>
   <si>
     <t>web_cannot_reached_desc</t>
@@ -1542,20 +1536,18 @@
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="D7" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1567,13 +1559,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="6">
         <v>33</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>35</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
@@ -1587,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="6">
         <v>36</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
@@ -1607,13 +1599,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
@@ -1627,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s" s="6">
         <v>40</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
@@ -1647,10 +1639,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
@@ -1665,13 +1657,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s" s="6">
         <v>45</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>47</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
@@ -1685,13 +1677,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s" s="6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>platform</t>
   </si>
@@ -28,7 +28,7 @@
     <t>日文</t>
   </si>
   <si>
-    <t>Mobile</t>
+    <t>Android, iOS</t>
   </si>
   <si>
     <t>error_old_version</t>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>"Agree &amp; Continue"をタップして%1$sと%2$sを受諾してください。</t>
+  </si>
+  <si>
+    <t>Android, iOS, Desktop</t>
   </si>
   <si>
     <t>wallet_transaction_tip</t>
@@ -1536,16 +1539,16 @@
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
@@ -1556,16 +1559,16 @@
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
@@ -1576,16 +1579,16 @@
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
@@ -1596,16 +1599,16 @@
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>37</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
@@ -1616,16 +1619,16 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
@@ -1636,13 +1639,13 @@
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
@@ -1654,16 +1657,16 @@
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
@@ -1674,16 +1677,16 @@
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s" s="6">
         <v>46</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>45</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>platform</t>
   </si>
@@ -158,6 +158,24 @@
   </si>
   <si>
     <t>%1$d participants</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Loading…</t>
+  </si>
+  <si>
+    <t>加载中…</t>
+  </si>
+  <si>
+    <t>Preparing</t>
+  </si>
+  <si>
+    <t>Preparing…</t>
+  </si>
+  <si>
+    <t>准备中…</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1714,18 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
+      <c r="A15" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>51</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1708,10 +1734,18 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
+      <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s" s="6">
+        <v>54</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -1757,7 +1757,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
